--- a/data/trans_camb/P27-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,22</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-9,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 1,03</t>
+          <t>-10,84; 2,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 10,23</t>
+          <t>-2,87; 10,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 17,52</t>
+          <t>-5,5; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 3,69</t>
+          <t>-7,86; 5,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,34</t>
+          <t>-15,66; -4,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,3</t>
+          <t>-6,5; 3,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,21</t>
+          <t>-0,7; 9,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,55</t>
+          <t>-10,86; 0,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,4</t>
+          <t>-3,91; 6,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,03; -4,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 1,31</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 8,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 2,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 4,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-14,08; -6,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-14,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-15,79%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 2,21</t>
+          <t>-20,67; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 22,45</t>
+          <t>-5,75; 22,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 38,37</t>
+          <t>-10,6; 18,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 6,36</t>
+          <t>-14,17; 11,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 18,36</t>
+          <t>-25,13; -8,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 20,07</t>
+          <t>-10,52; 6,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 2,24</t>
+          <t>-1,1; 16,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 16,62</t>
+          <t>-17,57; 0,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 23,93</t>
+          <t>-7,03; 12,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; -7,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-12,56; 2,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 16,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; 4,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 8,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,69; -10,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,14</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-7,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,34</t>
+          <t>-6,89; 7,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 12,04</t>
+          <t>-2,67; 11,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 12,83</t>
+          <t>-7,45; 7,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,84</t>
+          <t>-10,75; 7,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 12,98</t>
+          <t>-14,83; 5,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 17,87</t>
+          <t>-1,96; 9,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 6,73</t>
+          <t>0,6; 13,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 9,95</t>
+          <t>-13,26; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 12,31</t>
+          <t>-3,24; 13,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,28; -2,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 6,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 10,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 1,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 8,09</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-14,8; -0,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-17,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-13,58%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 17,27</t>
+          <t>-13,7; 16,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 28,61</t>
+          <t>-5,5; 27,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 30,23</t>
+          <t>-14,96; 17,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 19,06</t>
+          <t>-21,83; 17,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 25,01</t>
+          <t>-26,59; 11,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 34,55</t>
+          <t>-3,41; 19,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 13,39</t>
+          <t>1,11; 25,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 20,53</t>
+          <t>-22,8; 0,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 25,42</t>
+          <t>-6,76; 29,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-30,87; -2,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 12,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 21,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,17; 3,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 18,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; -1,46</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>14,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-6,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,77</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 27,16</t>
+          <t>0,24; 27,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 24,88</t>
+          <t>1,54; 28,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-20,5; 12,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 8,85</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-12,96; 10,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,85; 13,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,23; 11,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 14,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 15,86</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 14,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 18,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 6,49</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-15,16%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-5,97%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>13,05%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 79,82</t>
+          <t>1,49; 83,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 70,84</t>
+          <t>3,08; 87,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-42,64; 35,14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,99; 17,7</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 24,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-20,55; 21,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 27,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 23,83</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 32,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 35,81</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 33,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 44,0</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-26,53; 14,46</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,64</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-9,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,67</t>
+          <t>-5,18; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,45</t>
+          <t>0,23; 9,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,27</t>
+          <t>-4,92; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,51</t>
+          <t>-2,74; 7,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,24</t>
+          <t>-13,82; -4,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,05</t>
+          <t>-3,23; 4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,99</t>
+          <t>2,04; 9,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,97</t>
+          <t>-9,33; -1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,3</t>
+          <t>-1,36; 7,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; -5,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 3,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 8,22</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 0,63</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 5,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; -5,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>-15,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-14,87%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-15,34%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,36</t>
+          <t>-10,48; 9,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 21,08</t>
+          <t>0,49; 22,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,24; 34,26</t>
+          <t>-10,02; 11,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 8,18</t>
+          <t>-5,46; 16,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,85</t>
+          <t>-23,45; -7,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,95; 21,84</t>
+          <t>-5,49; 7,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 5,94</t>
+          <t>3,45; 16,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,63</t>
+          <t>-15,71; -1,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 24,31</t>
+          <t>-2,54; 15,08</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; -8,24</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 6,84</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 16,27</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 1,28</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 12,03</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; -9,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
